--- a/documentos/Entrega 1/Análise Descritiva de Dados/Analise.Descritiva.de.dados.PJ.xlsx
+++ b/documentos/Entrega 1/Análise Descritiva de Dados/Analise.Descritiva.de.dados.PJ.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\24026502\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0F3600-0517-4A88-9CC7-405366774AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F0821F-7EF5-49A3-8FDF-252956230384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F75E2A8E-0B9D-4653-8073-BC352AF255C3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{F75E2A8E-0B9D-4653-8073-BC352AF255C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>UF</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Média</t>
+  </si>
+  <si>
+    <t>95° Percentil</t>
   </si>
 </sst>
 </file>
@@ -160,14 +163,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2673,15 +2679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>22225</xdr:colOff>
+      <xdr:colOff>138641</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:rowOff>43392</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
+      <xdr:colOff>443441</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:rowOff>24342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3044,30 +3050,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32B24877-A02B-41DE-AD0B-1EE36B08B152}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3108,7 +3114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>5779868</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -3190,7 +3196,7 @@
         <v>5932304</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>5818584</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -3272,15 +3278,22 @@
         <v>5911655</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -3288,9 +3301,17 @@
         <f>AVERAGE(B3:M3)</f>
         <v>5140766.916666667</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="K10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="5">
+        <f>_xlfn.PERCENTILE.INC(B3:M3, 0.95)</f>
+        <v>7308395.1999999993</v>
+      </c>
+      <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3298,8 +3319,16 @@
         <f>AVERAGE(B4:M4)</f>
         <v>4706855.333333333</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="5">
+        <f>_xlfn.PERCENTILE.INC(B4:M4, 0.95)</f>
+        <v>7384934.4499999993</v>
+      </c>
+      <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3307,8 +3336,16 @@
         <f>AVERAGE(B5:M5)</f>
         <v>4714238.083333333</v>
       </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="5">
+        <f>_xlfn.PERCENTILE.INC(B5:M5, 0.95)</f>
+        <v>7323836.5999999987</v>
+      </c>
+      <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
@@ -3316,10 +3353,23 @@
         <f>AVERAGE(B6:M6)</f>
         <v>4862331.083333333</v>
       </c>
+      <c r="K13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L13" s="5">
+        <f>_xlfn.PERCENTILE.INC(B6:M6, 0.95)</f>
+        <v>7384903.5499999989</v>
+      </c>
+      <c r="M13" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="6">
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="B1:M1"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
